--- a/QMU/APP/dataset/zhuangji-ML/撞击-有限元仿真.xlsx
+++ b/QMU/APP/dataset/zhuangji-ML/撞击-有限元仿真.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\APP\dataset\zhuangji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\APP\dataset\zhuangji-ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE62719-1A10-486B-AAB9-4EADEE64A10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E4751-4B32-4C0D-A69A-883C6A1970FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="315" windowWidth="19440" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="330" windowWidth="17640" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176:A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,7 +1233,7 @@
         <v>200</v>
       </c>
       <c r="B80">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>200</v>
       </c>
       <c r="B81">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>1.4</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
         <v>1.4</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1302,7 +1302,7 @@
         <v>1.4</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>1.4</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1321,10 +1321,10 @@
         <v>200</v>
       </c>
       <c r="B88">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1332,7 +1332,7 @@
         <v>200</v>
       </c>
       <c r="B89">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>200</v>
       </c>
       <c r="B90">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>200</v>
       </c>
       <c r="B91">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>200</v>
       </c>
       <c r="B92">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1376,87 +1376,87 @@
         <v>200</v>
       </c>
       <c r="B93">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B94">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B95">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B96">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B97">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B98">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B99">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B100">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
         <v>300</v>
       </c>
       <c r="B101">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1475,10 +1475,10 @@
         <v>300</v>
       </c>
       <c r="B102">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1489,7 +1489,7 @@
         <v>1.4</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
         <v>300</v>
       </c>
       <c r="B104">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>300</v>
       </c>
       <c r="B105">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>300</v>
       </c>
       <c r="B106">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1530,7 +1530,7 @@
         <v>300</v>
       </c>
       <c r="B107">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1541,10 +1541,10 @@
         <v>300</v>
       </c>
       <c r="B108">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
         <v>300</v>
       </c>
       <c r="B109">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>300</v>
       </c>
       <c r="B110">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>1.3</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1588,7 +1588,7 @@
         <v>1.3</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -1599,7 +1599,7 @@
         <v>1.3</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1610,7 +1610,7 @@
         <v>1.3</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>300</v>
       </c>
       <c r="B115">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>300</v>
       </c>
       <c r="B116">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>300</v>
       </c>
       <c r="B117">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>300</v>
       </c>
       <c r="B118">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -1662,10 +1662,10 @@
         <v>300</v>
       </c>
       <c r="B119">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -1673,10 +1673,10 @@
         <v>300</v>
       </c>
       <c r="B120">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1684,10 +1684,10 @@
         <v>300</v>
       </c>
       <c r="B121">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1695,10 +1695,10 @@
         <v>300</v>
       </c>
       <c r="B122">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -1706,10 +1706,10 @@
         <v>300</v>
       </c>
       <c r="B123">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -1717,10 +1717,10 @@
         <v>300</v>
       </c>
       <c r="B124">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
         <v>300</v>
       </c>
       <c r="B125">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>300</v>
       </c>
       <c r="B126">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1750,7 +1750,7 @@
         <v>300</v>
       </c>
       <c r="B127">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -1761,7 +1761,7 @@
         <v>300</v>
       </c>
       <c r="B128">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>300</v>
       </c>
       <c r="B129">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -1783,7 +1783,7 @@
         <v>300</v>
       </c>
       <c r="B130">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>300</v>
       </c>
       <c r="B131">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -1805,7 +1805,7 @@
         <v>300</v>
       </c>
       <c r="B132">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>1.4</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -1830,7 +1830,7 @@
         <v>1.4</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1841,7 +1841,7 @@
         <v>1.4</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1852,7 +1852,7 @@
         <v>1.4</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -1860,7 +1860,7 @@
         <v>300</v>
       </c>
       <c r="B137">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -1871,10 +1871,10 @@
         <v>300</v>
       </c>
       <c r="B138">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1882,7 +1882,7 @@
         <v>300</v>
       </c>
       <c r="B139">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>300</v>
       </c>
       <c r="B140">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>300</v>
       </c>
       <c r="B141">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>300</v>
       </c>
       <c r="B142">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>300</v>
       </c>
       <c r="B143">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>300</v>
       </c>
       <c r="B144">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -1948,10 +1948,10 @@
         <v>300</v>
       </c>
       <c r="B145">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -1959,10 +1959,10 @@
         <v>300</v>
       </c>
       <c r="B146">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -1970,10 +1970,10 @@
         <v>300</v>
       </c>
       <c r="B147">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -1981,10 +1981,10 @@
         <v>300</v>
       </c>
       <c r="B148">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -1992,10 +1992,10 @@
         <v>300</v>
       </c>
       <c r="B149">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2003,10 +2003,10 @@
         <v>300</v>
       </c>
       <c r="B150">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2014,7 +2014,7 @@
         <v>300</v>
       </c>
       <c r="B151">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         <v>300</v>
       </c>
       <c r="B152">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2036,10 +2036,10 @@
         <v>300</v>
       </c>
       <c r="B153">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2047,10 +2047,10 @@
         <v>300</v>
       </c>
       <c r="B154">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2058,10 +2058,10 @@
         <v>300</v>
       </c>
       <c r="B155">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,7 @@
         <v>300</v>
       </c>
       <c r="B156">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2080,10 +2080,10 @@
         <v>300</v>
       </c>
       <c r="B157">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2091,10 +2091,10 @@
         <v>300</v>
       </c>
       <c r="B158">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2102,10 +2102,10 @@
         <v>300</v>
       </c>
       <c r="B159">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2113,10 +2113,10 @@
         <v>300</v>
       </c>
       <c r="B160">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2124,18 +2124,18 @@
         <v>300</v>
       </c>
       <c r="B161">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B162">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2143,65 +2143,65 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B163">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B164">
         <v>1.4</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B165">
         <v>1.4</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B166">
         <v>1.4</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B167">
         <v>1.4</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B168">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2209,21 +2209,21 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B169">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B170">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B171">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2242,46 +2242,46 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B172">
         <v>1.3</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B173">
         <v>1.3</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B174">
         <v>1.3</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B175">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2289,10 +2289,10 @@
         <v>400</v>
       </c>
       <c r="B176">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2300,10 +2300,10 @@
         <v>400</v>
       </c>
       <c r="B177">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2311,10 +2311,10 @@
         <v>400</v>
       </c>
       <c r="B178">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2322,10 +2322,10 @@
         <v>400</v>
       </c>
       <c r="B179">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2333,10 +2333,10 @@
         <v>400</v>
       </c>
       <c r="B180">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2344,10 +2344,10 @@
         <v>400</v>
       </c>
       <c r="B181">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2355,10 +2355,10 @@
         <v>400</v>
       </c>
       <c r="B182">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2366,10 +2366,10 @@
         <v>400</v>
       </c>
       <c r="B183">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2377,7 +2377,7 @@
         <v>400</v>
       </c>
       <c r="B184">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>400</v>
       </c>
       <c r="B185">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -2399,10 +2399,10 @@
         <v>400</v>
       </c>
       <c r="B186">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2410,7 +2410,7 @@
         <v>400</v>
       </c>
       <c r="B187">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>400</v>
       </c>
       <c r="B188">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -2432,7 +2432,7 @@
         <v>400</v>
       </c>
       <c r="B189">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -2443,10 +2443,10 @@
         <v>400</v>
       </c>
       <c r="B190">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2454,10 +2454,10 @@
         <v>400</v>
       </c>
       <c r="B191">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2465,10 +2465,10 @@
         <v>400</v>
       </c>
       <c r="B192">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2476,7 +2476,7 @@
         <v>400</v>
       </c>
       <c r="B193">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>400</v>
       </c>
       <c r="B194">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -2498,10 +2498,10 @@
         <v>400</v>
       </c>
       <c r="B195">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -2509,10 +2509,10 @@
         <v>400</v>
       </c>
       <c r="B196">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -2520,10 +2520,10 @@
         <v>400</v>
       </c>
       <c r="B197">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -2531,10 +2531,10 @@
         <v>400</v>
       </c>
       <c r="B198">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -2542,10 +2542,10 @@
         <v>400</v>
       </c>
       <c r="B199">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -2553,7 +2553,7 @@
         <v>400</v>
       </c>
       <c r="B200">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>400</v>
       </c>
       <c r="B201">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -2575,10 +2575,10 @@
         <v>400</v>
       </c>
       <c r="B202">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -2586,10 +2586,10 @@
         <v>400</v>
       </c>
       <c r="B203">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -2597,10 +2597,10 @@
         <v>400</v>
       </c>
       <c r="B204">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -2608,7 +2608,7 @@
         <v>400</v>
       </c>
       <c r="B205">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -2619,10 +2619,10 @@
         <v>400</v>
       </c>
       <c r="B206">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -2630,7 +2630,7 @@
         <v>400</v>
       </c>
       <c r="B207">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -2641,10 +2641,10 @@
         <v>400</v>
       </c>
       <c r="B208">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -2652,10 +2652,10 @@
         <v>400</v>
       </c>
       <c r="B209">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -2663,10 +2663,10 @@
         <v>400</v>
       </c>
       <c r="B210">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -2674,10 +2674,10 @@
         <v>400</v>
       </c>
       <c r="B211">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>400</v>
       </c>
       <c r="B212">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>400</v>
       </c>
       <c r="B213">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -2707,10 +2707,10 @@
         <v>400</v>
       </c>
       <c r="B214">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -2718,10 +2718,10 @@
         <v>400</v>
       </c>
       <c r="B215">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -2732,7 +2732,7 @@
         <v>1.4</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -2743,7 +2743,7 @@
         <v>1.4</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -2754,7 +2754,7 @@
         <v>1.4</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -2762,7 +2762,7 @@
         <v>400</v>
       </c>
       <c r="B219">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>400</v>
       </c>
       <c r="B220">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>400</v>
       </c>
       <c r="B221">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>400</v>
       </c>
       <c r="B222">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>400</v>
       </c>
       <c r="B223">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1.3</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -2828,7 +2828,7 @@
         <v>400</v>
       </c>
       <c r="B225">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>400</v>
       </c>
       <c r="B226">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -2850,10 +2850,10 @@
         <v>400</v>
       </c>
       <c r="B227">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -2861,10 +2861,10 @@
         <v>400</v>
       </c>
       <c r="B228">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -2872,9 +2872,240 @@
         <v>400</v>
       </c>
       <c r="B229">
+        <v>1.5</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>400</v>
+      </c>
+      <c r="B230">
+        <v>1.5</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>400</v>
+      </c>
+      <c r="B231">
+        <v>1.5</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>400</v>
+      </c>
+      <c r="B232">
+        <v>1.4</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>400</v>
+      </c>
+      <c r="B233">
+        <v>1.4</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>400</v>
+      </c>
+      <c r="B234">
+        <v>1.4</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>400</v>
+      </c>
+      <c r="B235">
+        <v>1.4</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>400</v>
+      </c>
+      <c r="B236">
+        <v>1.4</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>400</v>
+      </c>
+      <c r="B237">
+        <v>1.4</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>400</v>
+      </c>
+      <c r="B238">
+        <v>1.4</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>400</v>
+      </c>
+      <c r="B239">
+        <v>1.4</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>400</v>
+      </c>
+      <c r="B240">
+        <v>1.4</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>400</v>
+      </c>
+      <c r="B241">
+        <v>1.4</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>400</v>
+      </c>
+      <c r="B242">
+        <v>1.4</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>400</v>
+      </c>
+      <c r="B243">
+        <v>1.3</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>400</v>
+      </c>
+      <c r="B244">
+        <v>1.3</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>400</v>
+      </c>
+      <c r="B245">
+        <v>1.3</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>400</v>
+      </c>
+      <c r="B246">
+        <v>1.3</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>400</v>
+      </c>
+      <c r="B247">
+        <v>1.3</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>400</v>
+      </c>
+      <c r="B248">
+        <v>1.3</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>400</v>
+      </c>
+      <c r="B249">
+        <v>1.3</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>400</v>
+      </c>
+      <c r="B250">
         <v>1.2</v>
       </c>
-      <c r="C229">
+      <c r="C250">
         <v>0</v>
       </c>
     </row>
